--- a/云裳竞技场.xlsx
+++ b/云裳竞技场.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="森罗万象" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316">
   <si>
     <t>标题</t>
   </si>
@@ -45,6 +45,9 @@
     <t>其他</t>
   </si>
   <si>
+    <t>目前自己</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>袜子： 头饰：远山头纱 面饰：优昙面纱 手饰： 腿饰：白泽/桃源环</t>
   </si>
   <si>
+    <t>地奉7.9w</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -99,6 +105,9 @@
     <t>一剑寒轻花耳环项链</t>
   </si>
   <si>
+    <t>岁星9.2w</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -123,6 +132,9 @@
     <t>袜子：幽殄纹&gt;梳流袜 头饰： 面饰：晨星 手饰： 腿饰：</t>
   </si>
   <si>
+    <t>行云妙舞套+俏皮华丽配饰 7.3w</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
@@ -147,6 +159,9 @@
     <t>曼罗袜，九尾、斜阳，虞姬、曼罗光，血骨三阶手腕，回鹘腿饰</t>
   </si>
   <si>
+    <t>慈悲法藏8.5w</t>
+  </si>
+  <si>
     <t>鸾歌</t>
   </si>
   <si>
@@ -165,6 +180,9 @@
     <t>芳绮袜，腰重剑、湛寒饰，森罗秤，竞春头，白泽腿，镇星纹身</t>
   </si>
   <si>
+    <t>判世10w</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -186,6 +204,9 @@
     <t>重剑、轻剑、谛听角、松风隐剑，獠牙面具，金吾项链、七杀纹</t>
   </si>
   <si>
+    <t>鬼神惊影7.5w+</t>
+  </si>
+  <si>
     <t>Q</t>
   </si>
   <si>
@@ -213,6 +234,9 @@
     <t>九尾、月桂背、玄鹤伞，仙姝光、鸩头，晨星帘，玄冥袜，君子儒染色、蝶恋花、不要纹身</t>
   </si>
   <si>
+    <t>云蕾6w+</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
@@ -226,6 +250,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>凌波楚楚</t>
     </r>
     <r>
@@ -266,6 +296,9 @@
     <t>鸩头，丐帮纹身，玉兰腿，素书腕，花草的背</t>
   </si>
   <si>
+    <t>凌波+配件6.8w</t>
+  </si>
+  <si>
     <t>素裳</t>
   </si>
   <si>
@@ -279,6 +312,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>凌波楚楚</t>
     </r>
     <r>
@@ -319,6 +358,9 @@
     <t>风雅手腕、</t>
   </si>
   <si>
+    <t>云蕾+配件6.4w,玉兰7w</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -343,6 +385,9 @@
     <t>袜子：曼罗袜 头饰：圣火 面饰：圣火 手饰：血骨 腿饰：迷梦环沧波</t>
   </si>
   <si>
+    <t>孔雀+风情配件8.4w</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
@@ -364,6 +409,9 @@
     <t>袜子： 头饰： 面饰：蝶恋花 手饰： 腿饰：</t>
   </si>
   <si>
+    <t>行云妙舞12w</t>
+  </si>
+  <si>
     <t>黄沙</t>
   </si>
   <si>
@@ -379,6 +427,9 @@
     <t>袜子： 项链：剑催 头饰：苍云 面饰：鬼神惊影 手饰： 腿饰：鬼神惊影</t>
   </si>
   <si>
+    <t>破阵13w</t>
+  </si>
+  <si>
     <t>J</t>
   </si>
   <si>
@@ -394,6 +445,9 @@
     <t>袜子： 头饰：一气三清 面饰：眼镜/眼罩/松风隐罩 手饰：判世森罗镯 腿饰：</t>
   </si>
   <si>
+    <t>一气三清11.9w+、剑摧10.8w</t>
+  </si>
+  <si>
     <t>K</t>
   </si>
   <si>
@@ -415,6 +469,9 @@
     <t>袜子： 头饰： 面饰：眼镜 手饰：破阵 腿饰：鬼神惊影</t>
   </si>
   <si>
+    <t>剑摧朔风6.2w</t>
+  </si>
+  <si>
     <t>绿章</t>
   </si>
   <si>
@@ -433,6 +490,9 @@
     <t>湛寒饰，血骨配饰、披风</t>
   </si>
   <si>
+    <t>国色11.8w+</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -445,6 +505,9 @@
     <t>曼罗光，蝶灵袜子/曼罗袜子、蝶灵项链、慈悲纹身、孔雀环、九尾、谛听背轮</t>
   </si>
   <si>
+    <t>醉卧天地12.2w+</t>
+  </si>
+  <si>
     <t>袅娜</t>
   </si>
   <si>
@@ -460,6 +523,9 @@
     <t>老虎茉莉配饰、唐门低阶面具、三尾/九尾、仙姝光、弑恶罚罪</t>
   </si>
   <si>
+    <t>圣火明10.7w</t>
+  </si>
+  <si>
     <t>俏姿</t>
   </si>
   <si>
@@ -472,6 +538,9 @@
     <t>以梦配件，曼罗光，曼罗配件，狐狸尾、墨鲤纹、蝶灵项链、迷梦环染色</t>
   </si>
   <si>
+    <t>茉莉惜秋9.9w</t>
+  </si>
+  <si>
     <t>清水</t>
   </si>
   <si>
@@ -481,6 +550,9 @@
     <t>荷花配饰、春水帽染色、茉莉惜秋配件，豹子尾，万花环、七杀纹</t>
   </si>
   <si>
+    <t>圣火明8w</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -491,6 +563,74 @@
   </si>
   <si>
     <t>镇星配饰</t>
+  </si>
+  <si>
+    <r>
+      <t>金华</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优昙面部背景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国色三阶脚环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莲花三阶背部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=13.3w</t>
+    </r>
   </si>
   <si>
     <t>C</t>
@@ -521,6 +661,9 @@
     <t>袜子：白泽晓 头饰：罗摩纱/大狐狸耳朵/以梦 面饰：优昙面纱 手饰： 腿饰：国色环</t>
   </si>
   <si>
+    <t>辰星12.6w</t>
+  </si>
+  <si>
     <t>伶俐</t>
   </si>
   <si>
@@ -542,6 +685,9 @@
     <t>谛听配件，行云项链手腕、明星晨帘、罗摩纹</t>
   </si>
   <si>
+    <t>弑恶10.8w</t>
+  </si>
+  <si>
     <t>清丽</t>
   </si>
   <si>
@@ -557,6 +703,9 @@
     <t>岱宗缺1（76841）、仙姝光、墨鲤纹、桃夭链、万花腿、</t>
   </si>
   <si>
+    <t>七杀9.1w</t>
+  </si>
+  <si>
     <t>清茶</t>
   </si>
   <si>
@@ -575,6 +724,9 @@
     <t>袜子： 头饰： 面饰：松风口罩 手饰： 腿饰：</t>
   </si>
   <si>
+    <t>地奉旋星10w+</t>
+  </si>
+  <si>
     <t>清风</t>
   </si>
   <si>
@@ -596,6 +748,9 @@
     <t>袜子： 项链：剑摧项链 面饰：松风隐面罩 手饰：呦呦 腿饰：呦呦</t>
   </si>
   <si>
+    <t>岁星枯荣12.3w</t>
+  </si>
+  <si>
     <t>素质</t>
   </si>
   <si>
@@ -611,6 +766,9 @@
     <t>不要豹尾，岱宗配饰，眼罩、方琦袜、九尾、判世森罗项链镯子、眼镜、墨鲤纹</t>
   </si>
   <si>
+    <t>君子儒8.5w</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
@@ -635,6 +793,9 @@
     <t>朱明配饰</t>
   </si>
   <si>
+    <t>荧惑+配件11w,烛九州+配饰10w</t>
+  </si>
+  <si>
     <t>绣罗</t>
   </si>
   <si>
@@ -659,6 +820,9 @@
     <t>慈悲袜子纹身、九尾、斜阳、罗摩头面纹身、蝶灵腕/沙陀腕，青鸟使笼子</t>
   </si>
   <si>
+    <t>孔雀12.6w</t>
+  </si>
+  <si>
     <t>Z</t>
   </si>
   <si>
@@ -675,6 +839,9 @@
   </si>
   <si>
     <t>镇星配饰，百合袜</t>
+  </si>
+  <si>
+    <t>辰星7.5w+</t>
   </si>
   <si>
     <t>春日庭院</t>
@@ -2157,12 +2324,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2209,20 +2376,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2233,7 +2397,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2248,7 +2420,66 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2262,15 +2493,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -2286,59 +2518,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2352,11 +2532,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2420,7 +2600,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2432,7 +2624,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2444,7 +2762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2456,151 +2774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2719,11 +2899,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2739,41 +2940,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2802,17 +2973,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2824,10 +3004,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2836,140 +3016,140 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3090,11 +3270,23 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -4167,23 +4359,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="6" width="9.14285714285714" style="41"/>
-    <col min="7" max="7" width="33.5714285714286" style="41" customWidth="1"/>
-    <col min="8" max="8" width="28.4285714285714" style="41" customWidth="1"/>
-    <col min="9" max="9" width="27" style="41" customWidth="1"/>
-    <col min="10" max="10" width="31.7142857142857" style="41" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="41"/>
+    <col min="1" max="6" width="9.14285714285714" style="42"/>
+    <col min="7" max="7" width="33.5714285714286" style="42" customWidth="1"/>
+    <col min="8" max="8" width="28.4285714285714" style="42" customWidth="1"/>
+    <col min="9" max="9" width="27" style="42" customWidth="1"/>
+    <col min="10" max="10" width="31.7142857142857" style="42" customWidth="1"/>
+    <col min="11" max="11" width="47.1428571428571" style="42" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:10">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
         <v>0</v>
@@ -4210,306 +4403,339 @@
         <v>7</v>
       </c>
       <c r="J1" s="25"/>
-    </row>
-    <row r="2" ht="49.5" spans="1:10">
+      <c r="K1" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="49.5" spans="1:11">
       <c r="A2" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="33" spans="1:11">
+      <c r="A3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" ht="33" spans="1:10">
-      <c r="A3" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" ht="49.5" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="49.5" spans="1:11">
       <c r="A4" s="32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="33" spans="1:11">
+      <c r="A5" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" ht="33" spans="1:10">
-      <c r="A5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" ht="33" spans="1:10">
+        <v>45</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="33" spans="1:11">
       <c r="A6" s="27"/>
       <c r="B6" s="28" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="31" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" ht="33" spans="1:10">
+        <v>52</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" ht="33" spans="1:11">
       <c r="A7" s="32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="31" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" ht="49.5" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" ht="49.5" spans="1:11">
       <c r="A8" s="32" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" ht="33" spans="1:10">
+        <v>70</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" ht="33" spans="1:11">
       <c r="A9" s="32" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="31" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" ht="33" spans="1:10">
+        <v>79</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" ht="33" spans="1:11">
       <c r="A10" s="27"/>
       <c r="B10" s="28" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" ht="49.5" spans="1:10">
+        <v>88</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" ht="49.5" spans="1:11">
       <c r="A11" s="32" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="31" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="J11" s="30"/>
+      <c r="K11" s="45" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4520,23 +4746,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="6" width="9.14285714285714" style="41"/>
-    <col min="7" max="7" width="29.8571428571429" style="41" customWidth="1"/>
-    <col min="8" max="8" width="37.2857142857143" style="41" customWidth="1"/>
-    <col min="9" max="9" width="24.5714285714286" style="41" customWidth="1"/>
-    <col min="10" max="10" width="28.7142857142857" style="41" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="41"/>
+    <col min="1" max="6" width="9.14285714285714" style="42"/>
+    <col min="7" max="7" width="29.8571428571429" style="42" customWidth="1"/>
+    <col min="8" max="8" width="37.2857142857143" style="42" customWidth="1"/>
+    <col min="9" max="9" width="24.5714285714286" style="42" customWidth="1"/>
+    <col min="10" max="10" width="28.7142857142857" style="42" customWidth="1"/>
+    <col min="11" max="11" width="32.7142857142857" style="42" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:10">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
         <v>0</v>
@@ -4563,291 +4790,324 @@
         <v>7</v>
       </c>
       <c r="J1" s="25"/>
-    </row>
-    <row r="2" ht="33" spans="1:10">
+      <c r="K1" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="33" spans="1:11">
       <c r="A2" s="32" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="38" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J2" s="30"/>
-    </row>
-    <row r="3" ht="49.5" spans="1:10">
+      <c r="K2" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" ht="49.5" spans="1:11">
       <c r="A3" s="27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J3" s="30"/>
-    </row>
-    <row r="4" ht="49.5" spans="1:10">
+      <c r="K3" s="44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" ht="49.5" spans="1:11">
       <c r="A4" s="32" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="J4" s="30"/>
-    </row>
-    <row r="5" ht="33" spans="1:10">
+      <c r="K4" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" ht="33" spans="1:11">
       <c r="A5" s="32" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J5" s="30"/>
-    </row>
-    <row r="6" ht="33" spans="1:10">
+      <c r="K5" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" ht="33" spans="1:11">
       <c r="A6" s="27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="31" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" ht="49.5" spans="1:10">
+        <v>132</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" ht="49.5" spans="1:11">
       <c r="A7" s="32" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="31" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" ht="33" spans="1:10">
+        <v>137</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" ht="33" spans="1:11">
       <c r="A8" s="27"/>
       <c r="B8" s="28" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" ht="49.5" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" ht="49.5" spans="1:11">
       <c r="A9" s="27" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" ht="33" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" ht="33" spans="1:11">
       <c r="A10" s="27"/>
       <c r="B10" s="28" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="31" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" ht="33" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" ht="33" spans="1:11">
       <c r="A11" s="27" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="31" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>137</v>
+        <v>157</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4862,10 +5122,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -4874,9 +5134,10 @@
     <col min="8" max="8" width="39.8571428571429" customWidth="1"/>
     <col min="9" max="9" width="35.2857142857143" customWidth="1"/>
     <col min="10" max="10" width="25.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="36.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:10">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
         <v>0</v>
@@ -4903,311 +5164,342 @@
         <v>7</v>
       </c>
       <c r="J1" s="25"/>
-    </row>
-    <row r="2" ht="49.5" spans="1:10">
+      <c r="K1" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="49.5" spans="1:11">
       <c r="A2" s="34" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" ht="33" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" ht="33" spans="1:11">
       <c r="A3" s="27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" ht="33" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" ht="33" spans="1:11">
       <c r="A4" s="27" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="31" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" ht="33" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" ht="33" spans="1:11">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="J5" s="30"/>
-    </row>
-    <row r="6" ht="33" spans="1:10">
+      <c r="K5" s="40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" ht="33" spans="1:11">
       <c r="A6" s="27"/>
       <c r="B6" s="28" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="H6" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" ht="49.5" spans="1:11">
+      <c r="A7" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" ht="49.5" spans="1:10">
-      <c r="A7" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>148</v>
-      </c>
       <c r="G7" s="31" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" ht="33" spans="1:10">
+        <v>202</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" ht="33" spans="1:11">
       <c r="A8" s="32" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" ht="33" spans="1:10">
+        <v>211</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" ht="33" spans="1:11">
       <c r="A9" s="27" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" ht="49.5" spans="1:10">
+        <v>217</v>
+      </c>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" ht="49.5" spans="1:11">
       <c r="A10" s="32" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" ht="33" spans="1:10">
+        <v>220</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" ht="33" spans="1:11">
       <c r="A11" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>168</v>
-      </c>
       <c r="D11" s="31" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="31" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>198</v>
+        <v>227</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5221,7 +5513,7 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -5263,290 +5555,290 @@
     </row>
     <row r="2" ht="33" spans="1:10">
       <c r="A2" s="27" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="J2" s="30"/>
     </row>
     <row r="3" ht="49.5" spans="1:10">
       <c r="A3" s="32" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" ht="33" spans="1:10">
       <c r="A4" s="27" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="J4" s="30"/>
     </row>
     <row r="5" ht="33" spans="1:10">
       <c r="A5" s="27" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J5" s="30"/>
     </row>
     <row r="6" ht="16.5" spans="1:10">
       <c r="A6" s="27" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J6" s="30"/>
     </row>
     <row r="7" ht="33" spans="1:10">
       <c r="A7" s="27" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:10">
       <c r="A8" s="27"/>
       <c r="B8" s="28" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J8" s="30"/>
     </row>
     <row r="9" ht="49.5" spans="1:10">
       <c r="A9" s="27"/>
       <c r="B9" s="28" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>208</v>
-      </c>
       <c r="G9" s="31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" ht="33" spans="1:10">
       <c r="A10" s="27"/>
       <c r="B10" s="28" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:10">
       <c r="A11" s="27" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="31" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5583,7 +5875,7 @@
   <sheetData>
     <row r="1" ht="15" spans="1:12">
       <c r="A1" s="14" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -5633,10 +5925,10 @@
     </row>
     <row r="3" ht="33" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -5645,28 +5937,28 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="7" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
     </row>
     <row r="4" ht="33" spans="1:12">
       <c r="A4" s="19" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="22" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -5675,46 +5967,46 @@
     </row>
     <row r="5" ht="49.5" spans="1:12">
       <c r="A5" s="19" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="22" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="L5" s="21"/>
     </row>
     <row r="6" ht="49.5" spans="1:12">
       <c r="A6" s="19" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="22" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -5725,44 +6017,44 @@
     </row>
     <row r="7" ht="49.5" spans="1:12">
       <c r="A7" s="19" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="22" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="22" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="22" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="L7" s="21"/>
     </row>
     <row r="8" ht="33" spans="1:12">
       <c r="A8" s="19" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="22" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="22" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -5771,17 +6063,17 @@
     </row>
     <row r="9" ht="33" spans="1:12">
       <c r="A9" s="19" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -5791,24 +6083,24 @@
     </row>
     <row r="10" ht="49.5" spans="1:12">
       <c r="A10" s="19" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="22" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="22" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="22" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
@@ -6007,37 +6299,37 @@
   <sheetData>
     <row r="1" ht="25.55" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" ht="285.55" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="F2" s="9"/>
     </row>

--- a/云裳竞技场.xlsx
+++ b/云裳竞技场.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="森罗万象" sheetId="1" r:id="rId1"/>
@@ -250,13 +250,25 @@
   </si>
   <si>
     <r>
+      <t>凌波楚楚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>83145&gt;&gt;</t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>凌波楚楚</t>
+      <t>云蕾</t>
     </r>
     <r>
       <rPr>
@@ -265,8 +277,34 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>83145&gt;&gt;</t>
-    </r>
+      <t>5W</t>
+    </r>
+  </si>
+  <si>
+    <t>腰饰：九尾 背饰： 手持： 特殊： 纹身：</t>
+  </si>
+  <si>
+    <t>袜子： 头饰： 面饰：眼罩 手饰： 腿饰：</t>
+  </si>
+  <si>
+    <t>鸩头，丐帮纹身，玉兰腿，素书腕，花草的背</t>
+  </si>
+  <si>
+    <t>凌波+配件6.8w</t>
+  </si>
+  <si>
+    <t>素裳</t>
+  </si>
+  <si>
+    <t>温婉 简洁</t>
+  </si>
+  <si>
+    <t>伞</t>
+  </si>
+  <si>
+    <t>英气 华丽</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -274,7 +312,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>云蕾</t>
+      <t>凌波楚楚</t>
     </r>
     <r>
       <rPr>
@@ -283,34 +321,8 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>5W</t>
-    </r>
-  </si>
-  <si>
-    <t>腰饰：九尾 背饰： 手持： 特殊： 纹身：</t>
-  </si>
-  <si>
-    <t>袜子： 头饰： 面饰：眼罩 手饰： 腿饰：</t>
-  </si>
-  <si>
-    <t>鸩头，丐帮纹身，玉兰腿，素书腕，花草的背</t>
-  </si>
-  <si>
-    <t>凌波+配件6.8w</t>
-  </si>
-  <si>
-    <t>素裳</t>
-  </si>
-  <si>
-    <t>温婉 简洁</t>
-  </si>
-  <si>
-    <t>伞</t>
-  </si>
-  <si>
-    <t>英气 华丽</t>
-  </si>
-  <si>
+      <t>73626&gt;&gt;</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -318,7 +330,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>凌波楚楚</t>
+      <t>玉兰</t>
     </r>
     <r>
       <rPr>
@@ -327,8 +339,226 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>73626&gt;&gt;</t>
-    </r>
+      <t>7.2W</t>
+    </r>
+  </si>
+  <si>
+    <t>腰饰：九尾 背饰：芙蕖花背 手持： 特殊： 纹身：</t>
+  </si>
+  <si>
+    <t>袜子： 头饰：二阶兔耳朵 面饰：眼罩 手饰： 腿饰：</t>
+  </si>
+  <si>
+    <t>风雅手腕、</t>
+  </si>
+  <si>
+    <t>云蕾+配件6.4w,玉兰7w</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>行也媚</t>
+  </si>
+  <si>
+    <t>妩媚 风情</t>
+  </si>
+  <si>
+    <t>温婉 华丽</t>
+  </si>
+  <si>
+    <t>清新 端庄</t>
+  </si>
+  <si>
+    <t>以梦&gt;&gt;蝶灵&gt;&gt;血骨三阶、孔雀92505&gt;&gt;圣火8.3W</t>
+  </si>
+  <si>
+    <t>腰饰：九尾 背饰：斜阳饰 手持： 特殊： 纹身：罗摩纹</t>
+  </si>
+  <si>
+    <t>袜子：曼罗袜 头饰：圣火 面饰：圣火 手饰：血骨 腿饰：迷梦环沧波</t>
+  </si>
+  <si>
+    <t>孔雀+风情配件8.4w</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>婀娜</t>
+  </si>
+  <si>
+    <t>舞者</t>
+  </si>
+  <si>
+    <t>妩媚 端庄</t>
+  </si>
+  <si>
+    <t>远山155172&gt;&gt;行云13W&gt;&gt;茉莉9.3W</t>
+  </si>
+  <si>
+    <t>腰饰： 背饰：芙蕖背 手持：行云伞 特殊：天玑光/天殊光 纹身：谛心一阶纹身</t>
+  </si>
+  <si>
+    <t>袜子： 头饰： 面饰：蝶恋花 手饰： 腿饰：</t>
+  </si>
+  <si>
+    <t>行云妙舞12w</t>
+  </si>
+  <si>
+    <t>黄沙</t>
+  </si>
+  <si>
+    <t>剑侠 镜花</t>
+  </si>
+  <si>
+    <t>破阵140318&gt;&gt;剑摧9W</t>
+  </si>
+  <si>
+    <t>腰饰：重剑 背饰：开阳 手持： 特殊：藏剑树 纹身：七杀</t>
+  </si>
+  <si>
+    <t>袜子： 项链：剑催 头饰：苍云 面饰：鬼神惊影 手饰： 腿饰：鬼神惊影</t>
+  </si>
+  <si>
+    <t>破阵13w</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>俊眉</t>
+  </si>
+  <si>
+    <t>凌波楚楚145630&gt;&gt;一气三清12W</t>
+  </si>
+  <si>
+    <t>腰饰：重剑 背饰：君子儒卷/素书背 手持： 特殊： 纹身：醉卧天地纹</t>
+  </si>
+  <si>
+    <t>袜子： 头饰：一气三清 面饰：眼镜/眼罩/松风隐罩 手饰：判世森罗镯 腿饰：</t>
+  </si>
+  <si>
+    <t>一气三清11.9w+、剑摧10.8w</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>凯歌</t>
+  </si>
+  <si>
+    <t>英气 端庄</t>
+  </si>
+  <si>
+    <t>温婉 风情</t>
+  </si>
+  <si>
+    <t>一气三清92497&gt;&gt;剑摧6.5W、破阵6.5W</t>
+  </si>
+  <si>
+    <t>腰饰：重剑 背饰：松风剑 手持： 特殊：落英树 纹身：</t>
+  </si>
+  <si>
+    <t>袜子： 头饰： 面饰：眼镜 手饰：破阵 腿饰：鬼神惊影</t>
+  </si>
+  <si>
+    <t>剑摧朔风6.2w</t>
+  </si>
+  <si>
+    <t>绿章</t>
+  </si>
+  <si>
+    <t>华丽 温婉</t>
+  </si>
+  <si>
+    <t>简洁 英气</t>
+  </si>
+  <si>
+    <t>优昙婆罗165371&gt;&gt;血骨三阶&gt;&gt;踏歌&gt;&gt;落英怀剑9W、圣火7W</t>
+  </si>
+  <si>
+    <t>袜子： 头饰：远山雪 面饰： 手饰： 腿饰：</t>
+  </si>
+  <si>
+    <t>湛寒饰，血骨配饰、披风</t>
+  </si>
+  <si>
+    <t>国色11.8w+</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>南疆</t>
+  </si>
+  <si>
+    <t>血骨三阶&gt;&gt;曼罗13W&gt;&gt;净世焚日119587、蝶灵12W&gt;&gt;圣火8W</t>
+  </si>
+  <si>
+    <t>曼罗光，蝶灵袜子/曼罗袜子、蝶灵项链、慈悲纹身、孔雀环、九尾、谛听背轮</t>
+  </si>
+  <si>
+    <t>醉卧天地12.2w+</t>
+  </si>
+  <si>
+    <t>袅娜</t>
+  </si>
+  <si>
+    <t>俏皮 简洁</t>
+  </si>
+  <si>
+    <t>风雅 华丽</t>
+  </si>
+  <si>
+    <t>醉卧天地124361、白虎&gt;&gt;茉莉7W、月桂7W</t>
+  </si>
+  <si>
+    <t>老虎茉莉配饰、唐门低阶面具、三尾/九尾、仙姝光、弑恶罚罪</t>
+  </si>
+  <si>
+    <t>圣火明10.7w</t>
+  </si>
+  <si>
+    <t>俏姿</t>
+  </si>
+  <si>
+    <t>风情 温婉</t>
+  </si>
+  <si>
+    <t>蝶灵13W&gt;&gt;净世焚日9.9W、唐旋</t>
+  </si>
+  <si>
+    <t>以梦配件，曼罗光，曼罗配件，狐狸尾、墨鲤纹、蝶灵项链、迷梦环染色</t>
+  </si>
+  <si>
+    <t>茉莉惜秋9.9w</t>
+  </si>
+  <si>
+    <t>清水</t>
+  </si>
+  <si>
+    <t>凌波楚楚130113&gt;&gt;茉莉惜秋9W&gt;&gt;点墨香</t>
+  </si>
+  <si>
+    <t>荷花配饰、春水帽染色、茉莉惜秋配件，豹子尾，万花环、七杀纹</t>
+  </si>
+  <si>
+    <t>圣火明8w</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>云想</t>
+  </si>
+  <si>
+    <t>血骨三阶&gt;&gt;菊花三阶&gt;&gt;虞姬12.1W&gt;&gt;优昙婆罗12W、凌波楚楚</t>
+  </si>
+  <si>
+    <t>镇星配饰</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -336,236 +566,6 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>玉兰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7.2W</t>
-    </r>
-  </si>
-  <si>
-    <t>腰饰：九尾 背饰：芙蕖花背 手持： 特殊： 纹身：</t>
-  </si>
-  <si>
-    <t>袜子： 头饰：二阶兔耳朵 面饰：眼罩 手饰： 腿饰：</t>
-  </si>
-  <si>
-    <t>风雅手腕、</t>
-  </si>
-  <si>
-    <t>云蕾+配件6.4w,玉兰7w</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>行也媚</t>
-  </si>
-  <si>
-    <t>妩媚 风情</t>
-  </si>
-  <si>
-    <t>温婉 华丽</t>
-  </si>
-  <si>
-    <t>清新 端庄</t>
-  </si>
-  <si>
-    <t>以梦&gt;&gt;蝶灵&gt;&gt;血骨三阶、孔雀92505&gt;&gt;圣火8.3W</t>
-  </si>
-  <si>
-    <t>腰饰：九尾 背饰：斜阳饰 手持： 特殊： 纹身：罗摩纹</t>
-  </si>
-  <si>
-    <t>袜子：曼罗袜 头饰：圣火 面饰：圣火 手饰：血骨 腿饰：迷梦环沧波</t>
-  </si>
-  <si>
-    <t>孔雀+风情配件8.4w</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>婀娜</t>
-  </si>
-  <si>
-    <t>舞者</t>
-  </si>
-  <si>
-    <t>妩媚 端庄</t>
-  </si>
-  <si>
-    <t>远山155172&gt;&gt;行云13W&gt;&gt;茉莉9.3W</t>
-  </si>
-  <si>
-    <t>腰饰： 背饰：芙蕖背 手持：行云伞 特殊：天玑光/天殊光 纹身：谛心一阶纹身</t>
-  </si>
-  <si>
-    <t>袜子： 头饰： 面饰：蝶恋花 手饰： 腿饰：</t>
-  </si>
-  <si>
-    <t>行云妙舞12w</t>
-  </si>
-  <si>
-    <t>黄沙</t>
-  </si>
-  <si>
-    <t>剑侠 镜花</t>
-  </si>
-  <si>
-    <t>破阵140318&gt;&gt;剑摧9W</t>
-  </si>
-  <si>
-    <t>腰饰：重剑 背饰：开阳 手持： 特殊：藏剑树 纹身：七杀</t>
-  </si>
-  <si>
-    <t>袜子： 项链：剑催 头饰：苍云 面饰：鬼神惊影 手饰： 腿饰：鬼神惊影</t>
-  </si>
-  <si>
-    <t>破阵13w</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>俊眉</t>
-  </si>
-  <si>
-    <t>凌波楚楚145630&gt;&gt;一气三清12W</t>
-  </si>
-  <si>
-    <t>腰饰：重剑 背饰：君子儒卷/素书背 手持： 特殊： 纹身：醉卧天地纹</t>
-  </si>
-  <si>
-    <t>袜子： 头饰：一气三清 面饰：眼镜/眼罩/松风隐罩 手饰：判世森罗镯 腿饰：</t>
-  </si>
-  <si>
-    <t>一气三清11.9w+、剑摧10.8w</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>凯歌</t>
-  </si>
-  <si>
-    <t>英气 端庄</t>
-  </si>
-  <si>
-    <t>温婉 风情</t>
-  </si>
-  <si>
-    <t>一气三清92497&gt;&gt;剑摧6.5W、破阵6.5W</t>
-  </si>
-  <si>
-    <t>腰饰：重剑 背饰：松风剑 手持： 特殊：落英树 纹身：</t>
-  </si>
-  <si>
-    <t>袜子： 头饰： 面饰：眼镜 手饰：破阵 腿饰：鬼神惊影</t>
-  </si>
-  <si>
-    <t>剑摧朔风6.2w</t>
-  </si>
-  <si>
-    <t>绿章</t>
-  </si>
-  <si>
-    <t>华丽 温婉</t>
-  </si>
-  <si>
-    <t>简洁 英气</t>
-  </si>
-  <si>
-    <t>优昙婆罗165371&gt;&gt;血骨三阶&gt;&gt;踏歌&gt;&gt;落英怀剑9W、圣火7W</t>
-  </si>
-  <si>
-    <t>袜子： 头饰：远山雪 面饰： 手饰： 腿饰：</t>
-  </si>
-  <si>
-    <t>湛寒饰，血骨配饰、披风</t>
-  </si>
-  <si>
-    <t>国色11.8w+</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>南疆</t>
-  </si>
-  <si>
-    <t>血骨三阶&gt;&gt;曼罗13W&gt;&gt;净世焚日119587、蝶灵12W&gt;&gt;圣火8W</t>
-  </si>
-  <si>
-    <t>曼罗光，蝶灵袜子/曼罗袜子、蝶灵项链、慈悲纹身、孔雀环、九尾、谛听背轮</t>
-  </si>
-  <si>
-    <t>醉卧天地12.2w+</t>
-  </si>
-  <si>
-    <t>袅娜</t>
-  </si>
-  <si>
-    <t>俏皮 简洁</t>
-  </si>
-  <si>
-    <t>风雅 华丽</t>
-  </si>
-  <si>
-    <t>醉卧天地124361、白虎&gt;&gt;茉莉7W、月桂7W</t>
-  </si>
-  <si>
-    <t>老虎茉莉配饰、唐门低阶面具、三尾/九尾、仙姝光、弑恶罚罪</t>
-  </si>
-  <si>
-    <t>圣火明10.7w</t>
-  </si>
-  <si>
-    <t>俏姿</t>
-  </si>
-  <si>
-    <t>风情 温婉</t>
-  </si>
-  <si>
-    <t>蝶灵13W&gt;&gt;净世焚日9.9W、唐旋</t>
-  </si>
-  <si>
-    <t>以梦配件，曼罗光，曼罗配件，狐狸尾、墨鲤纹、蝶灵项链、迷梦环染色</t>
-  </si>
-  <si>
-    <t>茉莉惜秋9.9w</t>
-  </si>
-  <si>
-    <t>清水</t>
-  </si>
-  <si>
-    <t>凌波楚楚130113&gt;&gt;茉莉惜秋9W&gt;&gt;点墨香</t>
-  </si>
-  <si>
-    <t>荷花配饰、春水帽染色、茉莉惜秋配件，豹子尾，万花环、七杀纹</t>
-  </si>
-  <si>
-    <t>圣火明8w</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>云想</t>
-  </si>
-  <si>
-    <t>血骨三阶&gt;&gt;菊花三阶&gt;&gt;虞姬12.1W&gt;&gt;优昙婆罗12W、凌波楚楚</t>
-  </si>
-  <si>
-    <t>镇星配饰</t>
-  </si>
-  <si>
-    <r>
       <t>金华</t>
     </r>
     <r>
@@ -742,141 +742,18 @@
     <t>岁星136335&gt;&gt;青苍</t>
   </si>
   <si>
-    <t>腰饰：豹子尾巴 背饰：背筐/开阳备剑 手持： 特殊： 纹身：七杀</t>
-  </si>
-  <si>
-    <t>袜子： 项链：剑摧项链 面饰：松风隐面罩 手饰：呦呦 腿饰：呦呦</t>
-  </si>
-  <si>
-    <t>岁星枯荣12.3w</t>
-  </si>
-  <si>
-    <t>素质</t>
-  </si>
-  <si>
-    <t>端庄 保暖</t>
-  </si>
-  <si>
-    <t>中性</t>
-  </si>
-  <si>
-    <t>君子儒84722、岁星</t>
-  </si>
-  <si>
-    <t>不要豹尾，岱宗配饰，眼罩、方琦袜、九尾、判世森罗项链镯子、眼镜、墨鲤纹</t>
-  </si>
-  <si>
-    <t>君子儒8.5w</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>桃夭</t>
-  </si>
-  <si>
-    <t>温婉 华丽 俏皮</t>
-  </si>
-  <si>
-    <t>红色</t>
-  </si>
-  <si>
-    <t>荧惑&gt;&gt;烛九州94051&gt;&gt;朱明6.9W&gt;&gt;雪狐杯酌、虞姬</t>
-  </si>
-  <si>
-    <t>腰饰：三尾红色 背饰：掌珠娃娃 手持： 特殊：国色屏 纹身：</t>
-  </si>
-  <si>
-    <t>袜子： 头饰：红狐狸耳朵 面饰： 手饰： 腿饰：</t>
-  </si>
-  <si>
-    <t>朱明配饰</t>
-  </si>
-  <si>
-    <t>荧惑+配件11w,烛九州+配饰10w</t>
-  </si>
-  <si>
-    <t>绣罗</t>
-  </si>
-  <si>
-    <t>华丽 风情</t>
-  </si>
-  <si>
-    <t>简洁 端庄</t>
-  </si>
-  <si>
-    <t>以梦18W&gt;&gt;孔雀14W&gt;&gt;青鸟9W、雪狐杯酌8W</t>
-  </si>
-  <si>
-    <t>蝶灵袜子手腕、慈悲、罗摩头纹面，九尾</t>
-  </si>
-  <si>
-    <t>旖旎</t>
-  </si>
-  <si>
-    <t>以梦&gt;&gt;孔雀112871W&gt;&gt;月下珠泪&gt;&gt;玉团孔雀9W、青鸟8W</t>
-  </si>
-  <si>
-    <t>慈悲袜子纹身、九尾、斜阳、罗摩头面纹身、蝶灵腕/沙陀腕，青鸟使笼子</t>
-  </si>
-  <si>
-    <t>孔雀12.6w</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>筝笛</t>
-  </si>
-  <si>
-    <t>简洁 端庄 保暖</t>
-  </si>
-  <si>
-    <t>英气 俏皮</t>
-  </si>
-  <si>
-    <t>以梦11W&gt;&gt;辰星75190&gt;&gt;岱宗65525&gt;&gt;白泽&gt;&gt;森罗5W</t>
-  </si>
-  <si>
-    <t>镇星配饰，百合袜</t>
-  </si>
-  <si>
-    <t>辰星7.5w+</t>
-  </si>
-  <si>
-    <t>春日庭院</t>
-  </si>
-  <si>
-    <t>清新 华丽</t>
-  </si>
-  <si>
-    <t>异域 道格</t>
-  </si>
-  <si>
-    <t>妩媚 简洁</t>
-  </si>
-  <si>
-    <t>夏夜花语9W&gt;&gt;心有道6.8W&gt;&gt;东廷星辰6W&gt;&gt;雾生歌、凌波楚楚</t>
-  </si>
-  <si>
-    <t>腰饰：九尾 背饰：世间相 手持： 特殊：楚楚 纹身：</t>
-  </si>
-  <si>
-    <t>袜子： 头饰： 面饰：罗摩环 手饰： 腿饰：</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>故国旧梦</t>
-  </si>
-  <si>
-    <t>温婉 端庄</t>
-  </si>
-  <si>
-    <t>英气 风情</t>
-  </si>
-  <si>
+    <r>
+      <t>腰饰：豹子尾巴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -884,7 +761,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>雾生歌</t>
+      <t>背饰：背筐</t>
     </r>
     <r>
       <rPr>
@@ -893,7 +770,7 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>109395W&gt;&gt;</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -902,14 +779,395 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
+      <t>开阳备剑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手持：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特殊：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纹身：七杀</t>
+    </r>
+  </si>
+  <si>
+    <t>袜子： 项链：剑摧项链 面饰：松风隐面罩 手饰：呦呦 腿饰：呦呦</t>
+  </si>
+  <si>
+    <t>岁星枯荣12.3w</t>
+  </si>
+  <si>
+    <t>素质</t>
+  </si>
+  <si>
+    <t>端庄 保暖</t>
+  </si>
+  <si>
+    <t>中性</t>
+  </si>
+  <si>
+    <t>君子儒84722、岁星</t>
+  </si>
+  <si>
+    <t>不要豹尾，岱宗配饰，眼罩、方琦袜、九尾、判世森罗项链镯子、眼镜、墨鲤纹</t>
+  </si>
+  <si>
+    <t>君子儒8.5w</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>桃夭</t>
+  </si>
+  <si>
+    <t>温婉 华丽 俏皮</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>荧惑&gt;&gt;烛九州94051&gt;&gt;朱明6.9W&gt;&gt;雪狐杯酌、虞姬</t>
+  </si>
+  <si>
+    <t>腰饰：三尾红色 背饰：掌珠娃娃 手持： 特殊：国色屏 纹身：</t>
+  </si>
+  <si>
+    <t>袜子： 头饰：红狐狸耳朵 面饰： 手饰： 腿饰：</t>
+  </si>
+  <si>
+    <t>朱明配饰</t>
+  </si>
+  <si>
+    <t>荧惑+配件11w,烛九州+配饰10w</t>
+  </si>
+  <si>
+    <t>绣罗</t>
+  </si>
+  <si>
+    <t>华丽 风情</t>
+  </si>
+  <si>
+    <t>简洁 端庄</t>
+  </si>
+  <si>
+    <t>以梦18W&gt;&gt;孔雀14W&gt;&gt;青鸟9W、雪狐杯酌8W</t>
+  </si>
+  <si>
+    <t>蝶灵袜子手腕、慈悲、罗摩头纹面，九尾</t>
+  </si>
+  <si>
+    <t>旖旎</t>
+  </si>
+  <si>
+    <t>以梦&gt;&gt;孔雀112871W&gt;&gt;月下珠泪&gt;&gt;玉团孔雀9W、青鸟8W</t>
+  </si>
+  <si>
+    <t>慈悲袜子纹身、九尾、斜阳、罗摩头面纹身、蝶灵腕/沙陀腕，青鸟使笼子</t>
+  </si>
+  <si>
+    <t>孔雀12.6w</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>筝笛</t>
+  </si>
+  <si>
+    <t>简洁 端庄 保暖</t>
+  </si>
+  <si>
+    <t>英气 俏皮</t>
+  </si>
+  <si>
+    <t>以梦11W&gt;&gt;辰星75190&gt;&gt;岱宗65525&gt;&gt;白泽&gt;&gt;森罗5W</t>
+  </si>
+  <si>
+    <t>镇星配饰，百合袜</t>
+  </si>
+  <si>
+    <t>辰星7.5w+</t>
+  </si>
+  <si>
+    <t>春日庭院</t>
+  </si>
+  <si>
+    <t>清新 华丽</t>
+  </si>
+  <si>
+    <t>异域 道格</t>
+  </si>
+  <si>
+    <t>妩媚 简洁</t>
+  </si>
+  <si>
+    <t>夏夜花语9W&gt;&gt;心有道6.8W&gt;&gt;东廷星辰6W&gt;&gt;雾生歌、凌波楚楚</t>
+  </si>
+  <si>
+    <t>腰饰：九尾 背饰：世间相 手持： 特殊：楚楚 纹身：</t>
+  </si>
+  <si>
+    <t>袜子： 头饰： 面饰：罗摩环 手饰： 腿饰：</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>故国旧梦</t>
+  </si>
+  <si>
+    <t>温婉 端庄</t>
+  </si>
+  <si>
+    <t>英气 风情</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雾生歌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>109395W&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>夏夜花语套8w+</t>
     </r>
   </si>
   <si>
-    <t>腰饰：九尾 背饰： 手持： 特殊：国色屏 纹身：</t>
-  </si>
-  <si>
-    <t>袜子： 头饰：心有道帽/朱明头 面饰：优昙面纱 颈部：夏夜花语 腿饰：</t>
+    <r>
+      <t>腰饰：九尾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背饰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手持：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特殊：国色屏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纹身：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>袜子：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头饰：心有道帽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朱明头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面饰：优昙面纱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颈部：夏夜花语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>腿饰：</t>
+    </r>
   </si>
   <si>
     <t>黄色花盆背/世间相，大披风</t>
@@ -2324,10 +2582,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2384,12 +2642,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -2397,15 +2649,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2418,76 +2667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2502,10 +2683,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2518,7 +2714,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2535,6 +2731,67 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2600,7 +2857,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2612,25 +2977,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2648,139 +3025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2899,47 +3156,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2964,11 +3180,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2988,6 +3210,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2996,160 +3233,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3276,6 +3533,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3285,7 +3545,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4362,18 +4622,18 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="6" width="9.14285714285714" style="42"/>
-    <col min="7" max="7" width="33.5714285714286" style="42" customWidth="1"/>
-    <col min="8" max="8" width="28.4285714285714" style="42" customWidth="1"/>
-    <col min="9" max="9" width="27" style="42" customWidth="1"/>
-    <col min="10" max="10" width="31.7142857142857" style="42" customWidth="1"/>
-    <col min="11" max="11" width="47.1428571428571" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="9.14285714285714" style="42"/>
+    <col min="1" max="6" width="9.14285714285714" style="43"/>
+    <col min="7" max="7" width="33.5714285714286" style="43" customWidth="1"/>
+    <col min="8" max="8" width="28.4285714285714" style="43" customWidth="1"/>
+    <col min="9" max="9" width="27" style="43" customWidth="1"/>
+    <col min="10" max="10" width="31.7142857142857" style="43" customWidth="1"/>
+    <col min="11" max="11" width="47.1428571428571" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="43"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:11">
@@ -4403,7 +4663,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="25"/>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4436,7 +4696,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="30"/>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4471,7 +4731,7 @@
       <c r="J3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="46" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4504,7 +4764,7 @@
         <v>36</v>
       </c>
       <c r="J4" s="30"/>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4539,7 +4799,7 @@
       <c r="J5" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="46" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4570,7 +4830,7 @@
       <c r="J6" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="46" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4603,7 +4863,7 @@
       <c r="J7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="46" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4636,7 +4896,7 @@
       <c r="J8" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="46" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4669,7 +4929,7 @@
       <c r="J9" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="46" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4702,7 +4962,7 @@
       <c r="J10" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="46" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4733,7 +4993,7 @@
         <v>97</v>
       </c>
       <c r="J11" s="30"/>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="46" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4754,13 +5014,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="6" width="9.14285714285714" style="42"/>
-    <col min="7" max="7" width="29.8571428571429" style="42" customWidth="1"/>
-    <col min="8" max="8" width="37.2857142857143" style="42" customWidth="1"/>
-    <col min="9" max="9" width="24.5714285714286" style="42" customWidth="1"/>
-    <col min="10" max="10" width="28.7142857142857" style="42" customWidth="1"/>
-    <col min="11" max="11" width="32.7142857142857" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="9.14285714285714" style="42"/>
+    <col min="1" max="6" width="9.14285714285714" style="43"/>
+    <col min="7" max="7" width="29.8571428571429" style="43" customWidth="1"/>
+    <col min="8" max="8" width="37.2857142857143" style="43" customWidth="1"/>
+    <col min="9" max="9" width="24.5714285714286" style="43" customWidth="1"/>
+    <col min="10" max="10" width="28.7142857142857" style="43" customWidth="1"/>
+    <col min="11" max="11" width="32.7142857142857" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="43"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:11">
@@ -4790,7 +5050,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="25"/>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4821,7 +5081,7 @@
         <v>105</v>
       </c>
       <c r="J2" s="30"/>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4852,7 +5112,7 @@
         <v>111</v>
       </c>
       <c r="J3" s="30"/>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="45" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4885,7 +5145,7 @@
         <v>117</v>
       </c>
       <c r="J4" s="30"/>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4916,7 +5176,7 @@
         <v>125</v>
       </c>
       <c r="J5" s="30"/>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="45" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4949,7 +5209,7 @@
       <c r="J6" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="45" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4980,7 +5240,7 @@
       <c r="J7" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="45" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5011,7 +5271,7 @@
       <c r="J8" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="45" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5044,7 +5304,7 @@
       <c r="J9" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="45" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5075,7 +5335,7 @@
       <c r="J10" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="45" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5106,7 +5366,7 @@
       <c r="J11" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="44" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5124,8 +5384,8 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -5320,14 +5580,14 @@
       <c r="G6" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="33" t="s">
         <v>195</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>196</v>
       </c>
       <c r="J6" s="30"/>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="42" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5513,8 +5773,8 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -5603,10 +5863,10 @@
       <c r="G3" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="33" t="s">
         <v>242</v>
       </c>
       <c r="J3" s="31" t="s">
